--- a/项目缓存说明.xlsx
+++ b/项目缓存说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15660" windowHeight="6615"/>
+    <workbookView windowWidth="21495" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>key</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>登录验证码</t>
-  </si>
-  <si>
-    <t>login_errorTime</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>登录失败次数</t>
-  </si>
-  <si>
-    <t>次数&gt;3开启验证码</t>
   </si>
 </sst>
 </file>
@@ -78,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,9 +89,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,25 +103,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +140,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -155,15 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +172,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,21 +203,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,52 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,19 +247,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,163 +409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,9 +458,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,26 +521,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,34 +573,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,101 +609,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,9 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="3" customWidth="1"/>
@@ -1137,7 +1115,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1151,25 +1129,11 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:5">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/项目缓存说明.xlsx
+++ b/项目缓存说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10365"/>
+    <workbookView windowWidth="15960" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>ServletContext</t>
   </si>
   <si>
-    <t>SpringPath</t>
+    <t>springPath</t>
   </si>
   <si>
     <t>String</t>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,7 +89,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,129 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,25 +247,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,157 +385,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,17 +452,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +489,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -523,9 +521,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,8 +548,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +573,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,115 +591,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -771,6 +771,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -782,7 +783,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1065,7 +1066,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/项目缓存说明.xlsx
+++ b/项目缓存说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="5475"/>
+    <workbookView windowWidth="23028" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>key</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>登录验证码</t>
+  </si>
+  <si>
+    <t>bWxUser</t>
+  </si>
+  <si>
+    <t>BWxUser</t>
+  </si>
+  <si>
+    <t>微信访问用户</t>
   </si>
 </sst>
 </file>
@@ -66,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -88,6 +97,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,19 +151,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -124,24 +204,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,31 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,52 +236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,16 +466,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,24 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +530,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -529,30 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,115 +600,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,7 +792,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1063,16 +1072,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.8796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.8796296296296" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.25" style="3" customWidth="1"/>
@@ -1135,6 +1144,17 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1176,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1173,7 +1193,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
